--- a/excel/practice_datasets/lookups_datasets.xlsx
+++ b/excel/practice_datasets/lookups_datasets.xlsx
@@ -1,25 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\ds\ds_materials\excel\practice_datasets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E56E379-442D-4942-8D36-1ED705BDE8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{63CB05DA-312B-480C-86D9-9A896E914912}"/>
+    <workbookView windowWidth="19200" windowHeight="6920" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,14 +20,38 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -54,18 +71,33 @@
     <t>Hong Kong</t>
   </si>
   <si>
+    <t>vlookup</t>
+  </si>
+  <si>
     <t>William Johnson</t>
   </si>
   <si>
     <t>Berlin</t>
   </si>
   <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salary </t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
     <t>Thomas Bettle</t>
   </si>
   <si>
     <t>Bangkok</t>
   </si>
   <si>
+    <t>paul boell</t>
+  </si>
+  <si>
     <t>Ian Nash</t>
   </si>
   <si>
@@ -78,12 +110,21 @@
     <t>Shanghai</t>
   </si>
   <si>
+    <t>find name based on salary</t>
+  </si>
+  <si>
     <t>Michael Kaye</t>
   </si>
   <si>
     <t>Capetown</t>
   </si>
   <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t>Paul Bell</t>
   </si>
   <si>
@@ -96,28 +137,88 @@
     <t>Warsaw</t>
   </si>
   <si>
+    <t>xlookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name </t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>paul bell</t>
+  </si>
+  <si>
+    <t>Estelle Cormack</t>
+  </si>
+  <si>
+    <t>Christopher Fallon</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>total pay</t>
+  </si>
+  <si>
+    <t>looup functions</t>
+  </si>
+  <si>
+    <t>hloop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the name and location based on  salary </t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>indirect</t>
+  </si>
+  <si>
     <t>Williamr Black</t>
   </si>
   <si>
-    <t>Estelle Cormack</t>
-  </si>
-  <si>
-    <t>Christopher Fallon</t>
-  </si>
-  <si>
-    <t>Delhi</t>
+    <t>name basis salary find</t>
+  </si>
+  <si>
+    <t>find the paul bell index number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match return the index </t>
+  </si>
+  <si>
+    <t>index return the value base on index number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -125,18 +226,169 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,8 +401,200 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -182,29 +626,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -253,7 +987,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -286,26 +1020,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -338,23 +1055,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -496,26 +1196,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD829BAF-26E7-480B-A400-A6D648B85A44}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="12.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="8.31818181818182" customWidth="1"/>
+    <col min="4" max="4" width="3.95454545454545" customWidth="1"/>
+    <col min="5" max="5" width="2.68181818181818" customWidth="1"/>
+    <col min="6" max="6" width="5.81818181818182" customWidth="1"/>
+    <col min="8" max="8" width="18.2272727272727" customWidth="1"/>
+    <col min="9" max="9" width="13.5909090909091" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +1234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -542,13 +1247,16 @@
       <c r="D2" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3">
         <v>11771</v>
@@ -556,13 +1264,22 @@
       <c r="D3" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>13046</v>
@@ -570,13 +1287,24 @@
       <c r="D4" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="e">
+        <f>VLOOKUP(G4,A1:D13,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I4" t="e">
+        <f>VLOOKUP(G4,A1:D13,4,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3">
         <v>18276</v>
@@ -585,12 +1313,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>19327</v>
@@ -598,13 +1326,16 @@
       <c r="D6" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
         <v>18996</v>
@@ -612,13 +1343,19 @@
       <c r="D7" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>10387</v>
@@ -626,13 +1363,20 @@
       <c r="D8" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G8">
+        <v>10387</v>
+      </c>
+      <c r="H8" t="e">
+        <f>VLOOKUP(G8,A1:C13,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3">
         <v>12566</v>
@@ -641,12 +1385,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3">
         <v>16406</v>
@@ -654,13 +1398,28 @@
       <c r="D10" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
         <v>15784</v>
@@ -668,10 +1427,27 @@
       <c r="D11" s="3">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G11" t="str">
+        <f>_xlfn.XLOOKUP(G4,A1:A13,C1:C13,"Not found")</f>
+        <v>Not found</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="str" cm="1">
+        <f t="array" ref="J11:L11">_xlfn.XLOOKUP(I11,A1:A13,B1:D13)</f>
+        <v>Bangkok</v>
+      </c>
+      <c r="K11">
+        <v>10387</v>
+      </c>
+      <c r="L11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -683,12 +1459,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3">
         <v>14562</v>
@@ -696,8 +1472,725 @@
       <c r="D13" s="3">
         <v>32</v>
       </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="9:12">
+      <c r="I14">
+        <v>10387</v>
+      </c>
+      <c r="J14" t="str">
+        <f>_xlfn.XLOOKUP(I14,C1:C13,A1:A13)</f>
+        <v>Paul Bell</v>
+      </c>
+      <c r="L14">
+        <f>SUMIF(A1:A13,_xlfn.XLOOKUP(I14,C1:C13,A1:A13),C1:C13)</f>
+        <v>26171</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10">
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19">
+        <v>10387</v>
+      </c>
+      <c r="I19" t="str" cm="1">
+        <f t="array" ref="I19:J19">_xlfn.XLOOKUP(I14,C1:C13,A1:B13,"NA")</f>
+        <v>Paul Bell</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Bangkok</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="3:7">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <f>ROW(A11)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" t="e">
+        <f>MATCH(H19,C1:C11)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3">
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView showFormulas="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="15.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="17.0181818181818" customWidth="1"/>
+    <col min="4" max="4" width="9.46363636363636" customWidth="1"/>
+    <col min="5" max="5" width="12.6363636363636" customWidth="1"/>
+    <col min="6" max="6" width="12.4545454545455" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>13836</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11771</v>
+      </c>
+      <c r="D3" s="3">
+        <v>13046</v>
+      </c>
+      <c r="E3" s="3">
+        <v>18276</v>
+      </c>
+      <c r="F3" s="3">
+        <v>19327</v>
+      </c>
+      <c r="G3" s="3">
+        <v>18996</v>
+      </c>
+      <c r="H3" s="3">
+        <v>10387</v>
+      </c>
+      <c r="I3" s="3">
+        <v>12566</v>
+      </c>
+      <c r="J3" s="3">
+        <v>16406</v>
+      </c>
+      <c r="K3" s="3">
+        <v>15784</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10959</v>
+      </c>
+      <c r="M3" s="3">
+        <v>14562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3">
+        <v>35</v>
+      </c>
+      <c r="H4" s="3">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3">
+        <v>42</v>
+      </c>
+      <c r="K4" s="3">
+        <v>43</v>
+      </c>
+      <c r="L4" s="3">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>13836</v>
+      </c>
+      <c r="H9" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3">
+        <v>11771</v>
+      </c>
+      <c r="H10" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <f>HLOOKUP(B11,A1:M3,3,FALSE)</f>
+        <v>18276</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3">
+        <v>13046</v>
+      </c>
+      <c r="H11" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8">
+      <c r="E12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3">
+        <v>18276</v>
+      </c>
+      <c r="H12" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="5:8">
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="3">
+        <v>19327</v>
+      </c>
+      <c r="H13" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="5:8">
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3">
+        <v>18996</v>
+      </c>
+      <c r="H14" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="5:8">
+      <c r="E15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10387</v>
+      </c>
+      <c r="H15" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="5:8">
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3">
+        <v>12566</v>
+      </c>
+      <c r="H16" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="3">
+        <v>16406</v>
+      </c>
+      <c r="H17" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="3">
+        <v>15784</v>
+      </c>
+      <c r="H18" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10959</v>
+      </c>
+      <c r="H19" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="5:8">
+      <c r="E20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="3">
+        <v>14562</v>
+      </c>
+      <c r="H20" s="3">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="12.4454545454545" customWidth="1"/>
+    <col min="3" max="3" width="11.9545454545455" customWidth="1"/>
+    <col min="7" max="7" width="16.8454545454545" customWidth="1"/>
+    <col min="8" max="8" width="0.618181818181818" customWidth="1"/>
+    <col min="9" max="9" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>13836</v>
+      </c>
+      <c r="D2" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>11771</v>
+      </c>
+      <c r="D3" s="3">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>13046</v>
+      </c>
+      <c r="D4" s="3">
+        <v>35</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>18276</v>
+      </c>
+      <c r="D5" s="3">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5">
+        <f>MATCH("paul bell",A1:A13,FALSE)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <v>19327</v>
+      </c>
+      <c r="D6" s="3">
+        <v>26</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" ht="43.5" spans="1:9">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3">
+        <v>18996</v>
+      </c>
+      <c r="D7" s="3">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10387</v>
+      </c>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <f>ROW(F5)</f>
+        <v>5</v>
+      </c>
+      <c r="I8" t="str">
+        <f>INDEX(A1:A13,8)</f>
+        <v>Paul Bell</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12566</v>
+      </c>
+      <c r="D9" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3">
+        <v>16406</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>15784</v>
+      </c>
+      <c r="D11" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10959</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3">
+        <v>14562</v>
+      </c>
+      <c r="D13" s="3">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>